--- a/RNN_Stopping_Grid/Data2/Search/manual_search_results_1HL_bs_GLMAX1_1_15_30.xlsx
+++ b/RNN_Stopping_Grid/Data2/Search/manual_search_results_1HL_bs_GLMAX1_1_15_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56E886C0-C24C-4AFB-AD8D-33A18F399382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B81FF-BB86-4AAD-B5DA-94E59A1D1F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manual_search_results_1HL_bs_GL" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,7 +631,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -771,7 +771,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -784,7 +784,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
                   <a:t>Batch Size</a:t>
                 </a:r>
               </a:p>
@@ -803,7 +803,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -841,7 +841,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -874,7 +874,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -887,12 +887,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" b="1"/>
+                  <a:rPr lang="en-GB" sz="1200" b="1"/>
                   <a:t>Average MSE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5108593012275733E-2"/>
+              <c:y val="0.33781845797194132"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -906,7 +914,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -944,7 +952,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1571,15 +1579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1903,11 +1911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
